--- a/data-raw/butte_releasefish_edi.xlsx
+++ b/data-raw/butte_releasefish_edi.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Release Fish EDI"/>
+    <sheet r:id="rId4" name="Release_Fish_EDI" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Release_Fish_EDI">'Release_Fish_EDI'!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -591,4 +595,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>projectDescriptionID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>releaseFishID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>releaseID</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>forkLength</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>